--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-RecEmitidas.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-RecEmitidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F76E5-CF44-954D-A4B8-FF6A4E3CB7A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68AE37-C7DA-5344-8F90-50CE3E48A853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7580" windowWidth="35960" windowHeight="18240" xr2:uid="{E9788733-D204-D84A-A824-443E01B2DF94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ESTABLECIMEINTO :</t>
   </si>
@@ -57,9 +57,6 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>AUT S.R.I.</t>
-  </si>
-  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
@@ -81,7 +78,7 @@
     <t>CANTIDAD</t>
   </si>
   <si>
-    <t>RECIBOS EMITIDAS</t>
+    <t>RECIBOS EMITIDOS</t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32A76B9-2613-7147-BFF0-D21843D4C7F8}">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -504,17 +501,17 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="4" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -527,9 +524,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -538,9 +534,8 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -549,9 +544,8 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -560,9 +554,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -571,9 +564,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -582,9 +574,8 @@
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -612,7 +603,7 @@
       <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -620,14 +611,11 @@
       </c>
       <c r="L10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>

--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-RecEmitidas.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-RecEmitidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68AE37-C7DA-5344-8F90-50CE3E48A853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC38BB4-97D1-5447-AC22-369A5CFCC3B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7580" windowWidth="35960" windowHeight="18240" xr2:uid="{E9788733-D204-D84A-A824-443E01B2DF94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ESTABLECIMEINTO :</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>RECIBOS EMITIDOS</t>
+  </si>
+  <si>
+    <t>EMPRESA :</t>
+  </si>
+  <si>
+    <t>SUCURSAL</t>
   </si>
 </sst>
 </file>
@@ -490,26 +496,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32A76B9-2613-7147-BFF0-D21843D4C7F8}">
-  <dimension ref="A2:L10"/>
+  <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -524,103 +530,117 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
